--- a/reportes/RI10.10.2.56.xlsx
+++ b/reportes/RI10.10.2.56.xlsx
@@ -40,19 +40,19 @@
     <t>No. Expediente Clinico</t>
   </si>
   <si>
-    <t>BETANCOURT</t>
-  </si>
-  <si>
-    <t>CASTRO</t>
-  </si>
-  <si>
-    <t>JORGE</t>
-  </si>
-  <si>
-    <t>HUMBERTO</t>
-  </si>
-  <si>
-    <t>/201761059</t>
+    <t>ASICONA</t>
+  </si>
+  <si>
+    <t>DEL BARRIO</t>
+  </si>
+  <si>
+    <t>NAZARIO</t>
+  </si>
+  <si>
+    <t>BALTAZAR</t>
+  </si>
+  <si>
+    <t>/201761083</t>
   </si>
   <si>
     <t xml:space="preserve">Dirección actual </t>
@@ -91,13 +91,13 @@
     <t>Sexo</t>
   </si>
   <si>
-    <t>1991-12-20</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>GUATEMALA</t>
+    <t>1982-07-30</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHAJUIL QUICHE </t>
   </si>
   <si>
     <t>MASCULINO</t>
@@ -115,16 +115,16 @@
     <t>No. De Cédula</t>
   </si>
   <si>
-    <t>SOLTERO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INDEPENDIENTE </t>
+    <t>null</t>
+  </si>
+  <si>
+    <t>DISEÑADOR GRAFICO</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>2090373260101</t>
+    <t>2645288161405</t>
   </si>
   <si>
     <t>Nombre del Cónyugue</t>
@@ -148,16 +148,16 @@
     <t>Dirección</t>
   </si>
   <si>
-    <t xml:space="preserve">ALEJANDRA CHAVEZ </t>
-  </si>
-  <si>
-    <t>ENCARGADO</t>
-  </si>
-  <si>
-    <t>9AV 10-64 Z. 17</t>
-  </si>
-  <si>
-    <t>42957367</t>
+    <t xml:space="preserve">MARIA RAIMUNDO </t>
+  </si>
+  <si>
+    <t>ESPOSA</t>
+  </si>
+  <si>
+    <t>7AV 7-10 RES LA EURECA</t>
+  </si>
+  <si>
+    <t>49308448</t>
   </si>
   <si>
     <t xml:space="preserve">Otras Hospitalizaciones </t>

--- a/reportes/RI10.10.2.56.xlsx
+++ b/reportes/RI10.10.2.56.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="77">
   <si>
     <t xml:space="preserve">HOSPITAL GENERAL SAN JUAN DE DIOS </t>
   </si>
@@ -40,19 +40,19 @@
     <t>No. Expediente Clinico</t>
   </si>
   <si>
-    <t>ASICONA</t>
-  </si>
-  <si>
-    <t>DEL BARRIO</t>
-  </si>
-  <si>
-    <t>NAZARIO</t>
-  </si>
-  <si>
-    <t>BALTAZAR</t>
-  </si>
-  <si>
-    <t>/201761083</t>
+    <t>SOTO</t>
+  </si>
+  <si>
+    <t>ORTIZ</t>
+  </si>
+  <si>
+    <t>ROMEO</t>
+  </si>
+  <si>
+    <t>ALEXANDER</t>
+  </si>
+  <si>
+    <t>/201768534</t>
   </si>
   <si>
     <t xml:space="preserve">Dirección actual </t>
@@ -91,13 +91,13 @@
     <t>Sexo</t>
   </si>
   <si>
-    <t>1982-07-30</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHAJUIL QUICHE </t>
+    <t>1987-08-14</t>
+  </si>
+  <si>
+    <t>30 AÑOS</t>
+  </si>
+  <si>
+    <t>GUATEMALA</t>
   </si>
   <si>
     <t>MASCULINO</t>
@@ -115,18 +115,18 @@
     <t>No. De Cédula</t>
   </si>
   <si>
-    <t>null</t>
-  </si>
-  <si>
-    <t>DISEÑADOR GRAFICO</t>
+    <t>CASADO</t>
+  </si>
+  <si>
+    <t>VARIOS</t>
+  </si>
+  <si>
+    <t>GUATEMALTECO</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>2645288161405</t>
-  </si>
-  <si>
     <t>Nombre del Cónyugue</t>
   </si>
   <si>
@@ -148,16 +148,16 @@
     <t>Dirección</t>
   </si>
   <si>
-    <t xml:space="preserve">MARIA RAIMUNDO </t>
+    <t>MAGDA ALVAREZ</t>
   </si>
   <si>
     <t>ESPOSA</t>
   </si>
   <si>
-    <t>7AV 7-10 RES LA EURECA</t>
-  </si>
-  <si>
-    <t>49308448</t>
+    <t>PROYECTO 4-10 Z, 6</t>
+  </si>
+  <si>
+    <t>41014396</t>
   </si>
   <si>
     <t xml:space="preserve">Otras Hospitalizaciones </t>
@@ -182,6 +182,12 @@
   </si>
   <si>
     <t>Dias de estancia</t>
+  </si>
+  <si>
+    <t>8/11/2017</t>
+  </si>
+  <si>
+    <t>9:50:40</t>
   </si>
   <si>
     <t xml:space="preserve">IMPRESIÓN CLINICA DE INGRESO </t>
@@ -1438,11 +1444,11 @@
     </row>
     <row r="24" ht="16.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="B24" s="6"/>
       <c r="C24" s="7" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="D24" s="7" t="s">
         <v>17</v>
@@ -1457,7 +1463,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="32" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B25" s="32"/>
       <c r="C25" s="32"/>
@@ -1498,7 +1504,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="33" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B28" s="33"/>
       <c r="C28" s="33"/>
@@ -1509,7 +1515,7 @@
       <c r="H28" s="33"/>
       <c r="I28" s="33"/>
       <c r="J28" s="34" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K28" s="34"/>
     </row>
@@ -1541,7 +1547,7 @@
     </row>
     <row r="31" ht="21" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="33" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B31" s="33"/>
       <c r="C31" s="33"/>
@@ -1552,7 +1558,7 @@
       <c r="H31" s="33"/>
       <c r="I31" s="33"/>
       <c r="J31" s="40" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K31" s="40"/>
     </row>
@@ -1597,7 +1603,7 @@
     </row>
     <row r="35" ht="21" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="33" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B35" s="33"/>
       <c r="C35" s="33"/>
@@ -1608,7 +1614,7 @@
       <c r="H35" s="33"/>
       <c r="I35" s="33"/>
       <c r="J35" s="40" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K35" s="40"/>
     </row>
@@ -1641,46 +1647,46 @@
     </row>
     <row r="38" ht="24" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="43" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B38" s="44" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C38" s="44" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D38" s="44"/>
       <c r="E38" s="44" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F38" s="44"/>
       <c r="G38" s="44" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H38" s="44"/>
       <c r="I38" s="44"/>
       <c r="J38" s="45" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K38" s="45"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="46"/>
       <c r="B39" s="47" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C39" s="47" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D39" s="47"/>
       <c r="E39" s="47"/>
       <c r="F39" s="47" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G39" s="47"/>
       <c r="H39" s="47"/>
       <c r="I39" s="34" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J39" s="34"/>
       <c r="K39" s="34"/>
@@ -1700,7 +1706,7 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="49" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B41" s="49"/>
       <c r="C41" s="49"/>
@@ -1709,13 +1715,13 @@
       <c r="F41" s="49"/>
       <c r="G41" s="49"/>
       <c r="H41" s="47" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K41" s="50"/>
     </row>
     <row r="42" ht="15" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="51" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B42" s="51"/>
       <c r="C42" s="51"/>
@@ -1730,7 +1736,7 @@
     </row>
     <row r="43" ht="18.75" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="52" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B43" s="52"/>
       <c r="C43" s="52"/>

--- a/reportes/RI10.10.2.56.xlsx
+++ b/reportes/RI10.10.2.56.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="83">
   <si>
     <t xml:space="preserve">HOSPITAL GENERAL SAN JUAN DE DIOS </t>
   </si>
@@ -40,19 +40,19 @@
     <t>No. Expediente Clinico</t>
   </si>
   <si>
-    <t>SOTO</t>
-  </si>
-  <si>
-    <t>ORTIZ</t>
-  </si>
-  <si>
-    <t>ROMEO</t>
-  </si>
-  <si>
-    <t>ALEXANDER</t>
-  </si>
-  <si>
-    <t>/201768534</t>
+    <t>IBOY</t>
+  </si>
+  <si>
+    <t>SOLARES</t>
+  </si>
+  <si>
+    <t>ISABEL</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>2016-26508/201766161</t>
   </si>
   <si>
     <t xml:space="preserve">Dirección actual </t>
@@ -70,7 +70,19 @@
     <t>Teléfono</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t>ALDEA PUERTA PARADA</t>
+  </si>
+  <si>
+    <t>SANTA CATARINA PINULA</t>
+  </si>
+  <si>
+    <t>GUATEMALA CALLEJON LA LUZ</t>
+  </si>
+  <si>
+    <t>GUATEMALA</t>
+  </si>
+  <si>
+    <t>54062245</t>
   </si>
   <si>
     <t xml:space="preserve">Dirección habitual </t>
@@ -91,16 +103,13 @@
     <t>Sexo</t>
   </si>
   <si>
-    <t>1987-08-14</t>
-  </si>
-  <si>
-    <t>30 AÑOS</t>
-  </si>
-  <si>
-    <t>GUATEMALA</t>
-  </si>
-  <si>
-    <t>MASCULINO</t>
+    <t>1945-11-05</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>Femenino</t>
   </si>
   <si>
     <t>Estado Civil</t>
@@ -115,16 +124,16 @@
     <t>No. De Cédula</t>
   </si>
   <si>
-    <t>CASADO</t>
-  </si>
-  <si>
-    <t>VARIOS</t>
-  </si>
-  <si>
-    <t>GUATEMALTECO</t>
-  </si>
-  <si>
-    <t/>
+    <t>Casado</t>
+  </si>
+  <si>
+    <t>AMA  DE CASA</t>
+  </si>
+  <si>
+    <t>GUATEMALTECA</t>
+  </si>
+  <si>
+    <t>1683101550102</t>
   </si>
   <si>
     <t>Nombre del Cónyugue</t>
@@ -133,12 +142,21 @@
     <t xml:space="preserve">Dirección si difiere a la indicada </t>
   </si>
   <si>
+    <t>SANTAANA ARIZANDIETA</t>
+  </si>
+  <si>
     <t>Nombre del Padre:</t>
   </si>
   <si>
     <t xml:space="preserve">Nombre de la Madre: </t>
   </si>
   <si>
+    <t>FRANCISCO IBOY PINEDA</t>
+  </si>
+  <si>
+    <t>ENGRACIA SOLARES</t>
+  </si>
+  <si>
     <t>En caso de emergencia notificar a :</t>
   </si>
   <si>
@@ -148,16 +166,13 @@
     <t>Dirección</t>
   </si>
   <si>
-    <t>MAGDA ALVAREZ</t>
-  </si>
-  <si>
-    <t>ESPOSA</t>
-  </si>
-  <si>
-    <t>PROYECTO 4-10 Z, 6</t>
-  </si>
-  <si>
-    <t>41014396</t>
+    <t>NANCY ARIZANDIETA</t>
+  </si>
+  <si>
+    <t>HIJA</t>
+  </si>
+  <si>
+    <t>42206330</t>
   </si>
   <si>
     <t xml:space="preserve">Otras Hospitalizaciones </t>
@@ -184,10 +199,13 @@
     <t>Dias de estancia</t>
   </si>
   <si>
-    <t>8/11/2017</t>
-  </si>
-  <si>
-    <t>9:50:40</t>
+    <t>20/11/2017</t>
+  </si>
+  <si>
+    <t>14:30:22</t>
+  </si>
+  <si>
+    <t>INGRESO A HEMATO-ONCO</t>
   </si>
   <si>
     <t xml:space="preserve">IMPRESIÓN CLINICA DE INGRESO </t>
@@ -1127,25 +1145,25 @@
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I8" s="7"/>
       <c r="J8" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K8" s="7"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -1162,91 +1180,91 @@
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="10" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K9" s="10"/>
     </row>
     <row r="10" ht="18" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="7" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G10" s="7"/>
       <c r="H10" s="7" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="K10" s="7"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
       <c r="F11" s="12" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G11" s="12"/>
       <c r="H11" s="12" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I11" s="12"/>
       <c r="J11" s="10" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="K11" s="10"/>
     </row>
     <row r="12" ht="14.25" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="13" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G12" s="13"/>
       <c r="H12" s="13" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I12" s="13"/>
       <c r="J12" s="7" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B13" s="14"/>
       <c r="C13" s="14"/>
       <c r="D13" s="12" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E13" s="12"/>
       <c r="F13" s="12" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G13" s="12"/>
       <c r="H13" s="10" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I13" s="10"/>
       <c r="J13" s="10"/>
@@ -1254,20 +1272,20 @@
     </row>
     <row r="14" ht="21.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
       <c r="D14" s="13" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E14" s="13"/>
       <c r="F14" s="13" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G14" s="13"/>
       <c r="H14" s="7" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
@@ -1275,14 +1293,14 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
       <c r="D15" s="15"/>
       <c r="E15" s="15"/>
       <c r="F15" s="12" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G15" s="12"/>
       <c r="H15" s="12"/>
@@ -1292,14 +1310,14 @@
     </row>
     <row r="16" ht="12" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="13" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G16" s="13"/>
       <c r="H16" s="13"/>
@@ -1309,14 +1327,14 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
       <c r="F17" s="18" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G17" s="17"/>
       <c r="H17" s="17"/>
@@ -1326,14 +1344,14 @@
     </row>
     <row r="18" ht="16.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="B18" s="21"/>
       <c r="C18" s="21"/>
       <c r="D18" s="21"/>
       <c r="E18" s="21"/>
       <c r="F18" s="22" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="G18" s="21"/>
       <c r="H18" s="21"/>
@@ -1343,18 +1361,18 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>
       <c r="D19" s="15"/>
       <c r="E19" s="15"/>
       <c r="F19" s="24" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G19" s="24"/>
       <c r="H19" s="24" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="I19" s="24"/>
       <c r="J19" s="9" t="s">
@@ -1364,35 +1382,35 @@
     </row>
     <row r="20" ht="17.25" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="13" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="G20" s="13"/>
       <c r="H20" s="13" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="I20" s="13"/>
       <c r="J20" s="7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="K20" s="7"/>
     </row>
     <row r="21" ht="12.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B21" s="15"/>
       <c r="C21" s="15"/>
       <c r="D21" s="15"/>
       <c r="E21" s="15"/>
       <c r="F21" s="25" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="G21" s="25"/>
       <c r="H21" s="25"/>
@@ -1402,14 +1420,14 @@
     </row>
     <row r="22" ht="12.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="3" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
@@ -1419,39 +1437,39 @@
     </row>
     <row r="23" ht="18" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="27" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B23" s="27"/>
       <c r="C23" s="28" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D23" s="28" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E23" s="28"/>
       <c r="F23" s="18" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="G23" s="29"/>
       <c r="H23" s="30" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="I23" s="30"/>
       <c r="J23" s="31" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="K23" s="31"/>
     </row>
     <row r="24" ht="16.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B24" s="6"/>
       <c r="C24" s="7" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="E24" s="7"/>
       <c r="F24" s="13"/>
@@ -1463,7 +1481,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="32" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B25" s="32"/>
       <c r="C25" s="32"/>
@@ -1504,7 +1522,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="33" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B28" s="33"/>
       <c r="C28" s="33"/>
@@ -1515,7 +1533,7 @@
       <c r="H28" s="33"/>
       <c r="I28" s="33"/>
       <c r="J28" s="34" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="K28" s="34"/>
     </row>
@@ -1547,7 +1565,7 @@
     </row>
     <row r="31" ht="21" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="33" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B31" s="33"/>
       <c r="C31" s="33"/>
@@ -1558,7 +1576,7 @@
       <c r="H31" s="33"/>
       <c r="I31" s="33"/>
       <c r="J31" s="40" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="K31" s="40"/>
     </row>
@@ -1603,7 +1621,7 @@
     </row>
     <row r="35" ht="21" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="33" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B35" s="33"/>
       <c r="C35" s="33"/>
@@ -1614,7 +1632,7 @@
       <c r="H35" s="33"/>
       <c r="I35" s="33"/>
       <c r="J35" s="40" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="K35" s="40"/>
     </row>
@@ -1647,46 +1665,46 @@
     </row>
     <row r="38" ht="24" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="43" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B38" s="44" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C38" s="44" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="D38" s="44"/>
       <c r="E38" s="44" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F38" s="44"/>
       <c r="G38" s="44" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="H38" s="44"/>
       <c r="I38" s="44"/>
       <c r="J38" s="45" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="K38" s="45"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="46"/>
       <c r="B39" s="47" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C39" s="47" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="D39" s="47"/>
       <c r="E39" s="47"/>
       <c r="F39" s="47" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="G39" s="47"/>
       <c r="H39" s="47"/>
       <c r="I39" s="34" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="J39" s="34"/>
       <c r="K39" s="34"/>
@@ -1706,7 +1724,7 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="49" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B41" s="49"/>
       <c r="C41" s="49"/>
@@ -1715,13 +1733,13 @@
       <c r="F41" s="49"/>
       <c r="G41" s="49"/>
       <c r="H41" s="47" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="K41" s="50"/>
     </row>
     <row r="42" ht="15" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="51" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B42" s="51"/>
       <c r="C42" s="51"/>
@@ -1736,7 +1754,7 @@
     </row>
     <row r="43" ht="18.75" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="52" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B43" s="52"/>
       <c r="C43" s="52"/>

--- a/reportes/RI10.10.2.56.xlsx
+++ b/reportes/RI10.10.2.56.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="77">
   <si>
     <t xml:space="preserve">HOSPITAL GENERAL SAN JUAN DE DIOS </t>
   </si>
@@ -40,19 +40,19 @@
     <t>No. Expediente Clinico</t>
   </si>
   <si>
-    <t>IBOY</t>
-  </si>
-  <si>
-    <t>SOLARES</t>
-  </si>
-  <si>
-    <t>ISABEL</t>
+    <t>AGUILAR</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>2016-26508/201766161</t>
+    <t>LIDIA</t>
+  </si>
+  <si>
+    <t>LICELY</t>
+  </si>
+  <si>
+    <t>/201774458</t>
   </si>
   <si>
     <t xml:space="preserve">Dirección actual </t>
@@ -70,19 +70,7 @@
     <t>Teléfono</t>
   </si>
   <si>
-    <t>ALDEA PUERTA PARADA</t>
-  </si>
-  <si>
-    <t>SANTA CATARINA PINULA</t>
-  </si>
-  <si>
-    <t>GUATEMALA CALLEJON LA LUZ</t>
-  </si>
-  <si>
-    <t>GUATEMALA</t>
-  </si>
-  <si>
-    <t>54062245</t>
+    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t xml:space="preserve">Dirección habitual </t>
@@ -103,13 +91,16 @@
     <t>Sexo</t>
   </si>
   <si>
-    <t>1945-11-05</t>
-  </si>
-  <si>
-    <t>72</t>
-  </si>
-  <si>
-    <t>Femenino</t>
+    <t>1984-01-04</t>
+  </si>
+  <si>
+    <t>33 AÑOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAPITAL </t>
+  </si>
+  <si>
+    <t>FEMENINO</t>
   </si>
   <si>
     <t>Estado Civil</t>
@@ -124,16 +115,16 @@
     <t>No. De Cédula</t>
   </si>
   <si>
-    <t>Casado</t>
-  </si>
-  <si>
-    <t>AMA  DE CASA</t>
+    <t>CASADO</t>
+  </si>
+  <si>
+    <t>AMA DE CASA</t>
   </si>
   <si>
     <t>GUATEMALTECA</t>
   </si>
   <si>
-    <t>1683101550102</t>
+    <t>1683922160101</t>
   </si>
   <si>
     <t>Nombre del Cónyugue</t>
@@ -142,21 +133,12 @@
     <t xml:space="preserve">Dirección si difiere a la indicada </t>
   </si>
   <si>
-    <t>SANTAANA ARIZANDIETA</t>
-  </si>
-  <si>
     <t>Nombre del Padre:</t>
   </si>
   <si>
     <t xml:space="preserve">Nombre de la Madre: </t>
   </si>
   <si>
-    <t>FRANCISCO IBOY PINEDA</t>
-  </si>
-  <si>
-    <t>ENGRACIA SOLARES</t>
-  </si>
-  <si>
     <t>En caso de emergencia notificar a :</t>
   </si>
   <si>
@@ -166,13 +148,16 @@
     <t>Dirección</t>
   </si>
   <si>
-    <t>NANCY ARIZANDIETA</t>
-  </si>
-  <si>
-    <t>HIJA</t>
-  </si>
-  <si>
-    <t>42206330</t>
+    <t>VICTOR PADILLA</t>
+  </si>
+  <si>
+    <t>ESPOSO</t>
+  </si>
+  <si>
+    <t>2 av 2-71 z2 eñ cerrito fraijanes</t>
+  </si>
+  <si>
+    <t>53961839</t>
   </si>
   <si>
     <t xml:space="preserve">Otras Hospitalizaciones </t>
@@ -199,13 +184,10 @@
     <t>Dias de estancia</t>
   </si>
   <si>
-    <t>20/11/2017</t>
-  </si>
-  <si>
-    <t>14:30:22</t>
-  </si>
-  <si>
-    <t>INGRESO A HEMATO-ONCO</t>
+    <t>23/11/2017</t>
+  </si>
+  <si>
+    <t>9:10:46</t>
   </si>
   <si>
     <t xml:space="preserve">IMPRESIÓN CLINICA DE INGRESO </t>
@@ -1145,25 +1127,25 @@
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I8" s="7"/>
       <c r="J8" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K8" s="7"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -1180,91 +1162,91 @@
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="10" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="K9" s="10"/>
     </row>
     <row r="10" ht="18" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="7" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G10" s="7"/>
       <c r="H10" s="7" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="K10" s="7"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
       <c r="F11" s="12" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G11" s="12"/>
       <c r="H11" s="12" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I11" s="12"/>
       <c r="J11" s="10" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="K11" s="10"/>
     </row>
     <row r="12" ht="14.25" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="13" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="G12" s="13"/>
       <c r="H12" s="13" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="I12" s="13"/>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="K12" s="7"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B13" s="14"/>
       <c r="C13" s="14"/>
       <c r="D13" s="12" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E13" s="12"/>
       <c r="F13" s="12" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G13" s="12"/>
       <c r="H13" s="10" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I13" s="10"/>
       <c r="J13" s="10"/>
@@ -1272,20 +1254,20 @@
     </row>
     <row r="14" ht="21.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
       <c r="D14" s="13" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E14" s="13"/>
       <c r="F14" s="13" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G14" s="13"/>
       <c r="H14" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
@@ -1293,14 +1275,14 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
       <c r="D15" s="15"/>
       <c r="E15" s="15"/>
       <c r="F15" s="12" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G15" s="12"/>
       <c r="H15" s="12"/>
@@ -1310,14 +1292,14 @@
     </row>
     <row r="16" ht="12" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="13" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G16" s="13"/>
       <c r="H16" s="13"/>
@@ -1327,14 +1309,14 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
       <c r="F17" s="18" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G17" s="17"/>
       <c r="H17" s="17"/>
@@ -1344,14 +1326,14 @@
     </row>
     <row r="18" ht="16.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="B18" s="21"/>
       <c r="C18" s="21"/>
       <c r="D18" s="21"/>
       <c r="E18" s="21"/>
       <c r="F18" s="22" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="G18" s="21"/>
       <c r="H18" s="21"/>
@@ -1361,18 +1343,18 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>
       <c r="D19" s="15"/>
       <c r="E19" s="15"/>
       <c r="F19" s="24" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G19" s="24"/>
       <c r="H19" s="24" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="I19" s="24"/>
       <c r="J19" s="9" t="s">
@@ -1382,35 +1364,35 @@
     </row>
     <row r="20" ht="17.25" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="13" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="G20" s="13"/>
       <c r="H20" s="13" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="I20" s="13"/>
       <c r="J20" s="7" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="K20" s="7"/>
     </row>
     <row r="21" ht="12.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B21" s="15"/>
       <c r="C21" s="15"/>
       <c r="D21" s="15"/>
       <c r="E21" s="15"/>
       <c r="F21" s="25" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G21" s="25"/>
       <c r="H21" s="25"/>
@@ -1420,14 +1402,14 @@
     </row>
     <row r="22" ht="12.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="3" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
@@ -1437,39 +1419,39 @@
     </row>
     <row r="23" ht="18" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="27" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B23" s="27"/>
       <c r="C23" s="28" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D23" s="28" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E23" s="28"/>
       <c r="F23" s="18" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="G23" s="29"/>
       <c r="H23" s="30" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="I23" s="30"/>
       <c r="J23" s="31" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="K23" s="31"/>
     </row>
     <row r="24" ht="16.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B24" s="6"/>
       <c r="C24" s="7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="E24" s="7"/>
       <c r="F24" s="13"/>
@@ -1481,7 +1463,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="32" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B25" s="32"/>
       <c r="C25" s="32"/>
@@ -1522,7 +1504,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="33" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B28" s="33"/>
       <c r="C28" s="33"/>
@@ -1533,7 +1515,7 @@
       <c r="H28" s="33"/>
       <c r="I28" s="33"/>
       <c r="J28" s="34" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="K28" s="34"/>
     </row>
@@ -1565,7 +1547,7 @@
     </row>
     <row r="31" ht="21" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="33" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B31" s="33"/>
       <c r="C31" s="33"/>
@@ -1576,7 +1558,7 @@
       <c r="H31" s="33"/>
       <c r="I31" s="33"/>
       <c r="J31" s="40" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="K31" s="40"/>
     </row>
@@ -1621,7 +1603,7 @@
     </row>
     <row r="35" ht="21" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="33" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B35" s="33"/>
       <c r="C35" s="33"/>
@@ -1632,7 +1614,7 @@
       <c r="H35" s="33"/>
       <c r="I35" s="33"/>
       <c r="J35" s="40" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="K35" s="40"/>
     </row>
@@ -1665,46 +1647,46 @@
     </row>
     <row r="38" ht="24" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="43" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B38" s="44" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C38" s="44" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D38" s="44"/>
       <c r="E38" s="44" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F38" s="44"/>
       <c r="G38" s="44" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="H38" s="44"/>
       <c r="I38" s="44"/>
       <c r="J38" s="45" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="K38" s="45"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="46"/>
       <c r="B39" s="47" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C39" s="47" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D39" s="47"/>
       <c r="E39" s="47"/>
       <c r="F39" s="47" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G39" s="47"/>
       <c r="H39" s="47"/>
       <c r="I39" s="34" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="J39" s="34"/>
       <c r="K39" s="34"/>
@@ -1724,7 +1706,7 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="49" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B41" s="49"/>
       <c r="C41" s="49"/>
@@ -1733,13 +1715,13 @@
       <c r="F41" s="49"/>
       <c r="G41" s="49"/>
       <c r="H41" s="47" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="K41" s="50"/>
     </row>
     <row r="42" ht="15" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="51" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B42" s="51"/>
       <c r="C42" s="51"/>
@@ -1754,7 +1736,7 @@
     </row>
     <row r="43" ht="18.75" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="52" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B43" s="52"/>
       <c r="C43" s="52"/>
